--- a/biology/Botanique/Thespesia_populnea/Thespesia_populnea.xlsx
+++ b/biology/Botanique/Thespesia_populnea/Thespesia_populnea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thespesia populnea est une espèce d'arbres de la famille des malvacées, caractéristique des zones littorales tropicales. Il est originaire des zones côtières de l'océan Indien et de l'océan Pacifique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thespesia populnea est une espèce d'arbres de la famille des malvacées, caractéristique des zones littorales tropicales. Il est originaire des zones côtières de l'océan Indien et de l'océan Pacifique.
 L'arbre est appelé porcher à La Réunion et miro en Polynésie française.
 </t>
         </is>
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre de 3 à 6 mètres de haut. 
-Ses feuilles longues de 10 à 30 cm sur un long pétiole sont en forme de cœur[2].
+Ses feuilles longues de 10 à 30 cm sur un long pétiole sont en forme de cœur.
 Ses fleurs de 4 à 7 cm de diamètre, qui durent une journée débutent jaune pâle à centre marron et deviennent progressivement roses, pourpres ou rouges.
 Les fruits sont des capsules presque sphériques d'environ 2,5 cm de diamètre divisées en cinq compartiments contenant 5 graines d'environ 1 cm de long et de 8 mm d'épaisseur. 
-Le fruit sec a la capacité de flotter sur les courants marins et il peut ainsi disséminer ses graines sur d'autres îles et sur les plages de la côte[3].
+Le fruit sec a la capacité de flotter sur les courants marins et il peut ainsi disséminer ses graines sur d'autres îles et sur les plages de la côte.
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Asie, Thespesia populnea est présent en Chine (Guangdong et Hainan), au Japon et à Taïwan, et sur toute la côte indienne, en Inde, au Sri Lanka, au Cambodge, en Thaïlande et au Vietnam ainsi que dans les îles Maldives, Indonésie, Malaisie, Papouasie-Nouvelle-Guinée, Philippines et Hawaï et jusqu'en Australie, à la Réunion, aux Seychelles, aux Comores, à Mayotte et à Madagascar.
 En Amérique, il est présent dans le nord de l'Amérique du Sud, Venezuela et Colombie, en Amérique Centrale : Costa Rica, Honduras, Mexique, Nicaragua, et dans l'ensemble des Caraïbes (Antigua, Bahamas, Barbade, Bermudes, Iles Caïmans, Cuba, Dominique, Grenade, Guadeloupe, Hispaniola, Jamaïque, Martinique, Antilles Néerlandaises, Porto Rico, Sainte Lucie, Saint Vincent, Grenadines et Iles Vierges) et la Floride.
-Sur le continent africain Thespesia populnea est présent en Érythrée, en Somalie, au Kenya, en Tanzanie, au Bénin, Ghana, Nigeria, Sénégal, Togo et Mozambique[4].
+Sur le continent africain Thespesia populnea est présent en Érythrée, en Somalie, au Kenya, en Tanzanie, au Bénin, Ghana, Nigeria, Sénégal, Togo et Mozambique.
 </t>
         </is>
       </c>
@@ -580,13 +596,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Thespesia populnea est souvent planté par l'homme dans le but de stabiliser les cordons de dunes et de revégétaliser les espaces littoraux.
-Usage médicinal
-Il est utilisé dans le traitement des hémorroïdes en Mauritanie, le suc des jeunes fruits pour le traitement des maladies de peau en Inde (décoction de l'écorce ainsi que des feuilles puis application du suc jaune des graines), et les racines sont utilisées comme tonique, en décoction, les très jeunes graines, appliquées sur le front soigneraient les migraines[5].
-Artisanat
-Il est utilisé sur les îles Marquises et en particulier à Ua Huka, où il est appelé miro, pour la sculpture de statuettes en bois représentant Tiki[6].
 </t>
         </is>
       </c>
@@ -612,10 +626,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Usage médicinal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé dans le traitement des hémorroïdes en Mauritanie, le suc des jeunes fruits pour le traitement des maladies de peau en Inde (décoction de l'écorce ainsi que des feuilles puis application du suc jaune des graines), et les racines sont utilisées comme tonique, en décoction, les très jeunes graines, appliquées sur le front soigneraient les migraines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thespesia_populnea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thespesia_populnea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Artisanat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé sur les îles Marquises et en particulier à Ua Huka, où il est appelé miro, pour la sculpture de statuettes en bois représentant Tiki.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thespesia_populnea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thespesia_populnea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Quelques photos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Porcher ou Miro
